--- a/CP04OSPM/Omaha_Cal_Info_CP04OSPM_00001.xlsx
+++ b/CP04OSPM/Omaha_Cal_Info_CP04OSPM_00001.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gauls\Documents\Project Info\WHOI\Marine Integration - OOI\OOInet Migration\Integration\Cal and Ingest Sheets\Sheets from -test 2015-08-19\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="12720" windowHeight="12405" tabRatio="377"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="12720" windowHeight="12408" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -30,7 +35,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$A$1:$J$82</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$F$402</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -279,6 +284,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -295,7 +301,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -311,6 +317,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,7 +394,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -446,6 +458,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="15" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -525,6 +540,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -572,7 +590,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -607,7 +625,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -819,27 +837,27 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.42578125"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17.42578125"/>
-    <col min="7" max="7" width="18.7109375"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875"/>
-    <col min="10" max="10" width="12.7109375"/>
-    <col min="11" max="11" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="39.44140625"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.44140625"/>
+    <col min="7" max="7" width="18.6640625"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875"/>
+    <col min="10" max="10" width="12.6640625"/>
+    <col min="11" max="11" width="27.33203125" customWidth="1"/>
     <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="1026" width="8.7109375"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="1026" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -874,7 +892,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>34</v>
       </c>
@@ -890,7 +908,9 @@
       <c r="E2" s="11">
         <v>0.78333333333333333</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="27">
+        <v>41916</v>
+      </c>
       <c r="G2" s="5" t="s">
         <v>53</v>
       </c>
@@ -913,7 +933,7 @@
         <v>-70.886944999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
@@ -931,22 +951,22 @@
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125"/>
-    <col min="8" max="8" width="11.85546875"/>
-    <col min="9" max="9" width="14.42578125"/>
-    <col min="10" max="10" width="13.42578125"/>
-    <col min="11" max="1025" width="8.7109375"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625"/>
+    <col min="8" max="8" width="11.88671875"/>
+    <col min="9" max="9" width="14.44140625"/>
+    <col min="10" max="10" width="13.44140625"/>
+    <col min="11" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -966,7 +986,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="23"/>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
@@ -974,7 +994,7 @@
       <c r="E2" s="24"/>
       <c r="F2" s="25"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>35</v>
       </c>
@@ -995,7 +1015,7 @@
       </c>
       <c r="G3" s="13"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>35</v>
       </c>
@@ -1016,7 +1036,7 @@
       </c>
       <c r="G4" s="13"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>35</v>
       </c>
@@ -1037,7 +1057,7 @@
       </c>
       <c r="G5" s="13"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>35</v>
       </c>
@@ -1058,7 +1078,7 @@
       </c>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>35</v>
       </c>
@@ -1079,7 +1099,7 @@
       </c>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>35</v>
       </c>
@@ -1100,7 +1120,7 @@
       </c>
       <c r="G8" s="13"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>35</v>
       </c>
@@ -1121,7 +1141,7 @@
       </c>
       <c r="G9" s="13"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>35</v>
       </c>
@@ -1142,7 +1162,7 @@
       </c>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -1151,7 +1171,7 @@
       <c r="F11" s="18"/>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>36</v>
       </c>
@@ -1172,7 +1192,7 @@
       </c>
       <c r="G12" s="13"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>36</v>
       </c>
@@ -1193,7 +1213,7 @@
       </c>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -1202,7 +1222,7 @@
       <c r="F14" s="19"/>
       <c r="G14" s="13"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>55</v>
       </c>
@@ -1223,7 +1243,7 @@
       </c>
       <c r="G15" s="13"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>55</v>
       </c>
@@ -1244,7 +1264,7 @@
       </c>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -1253,7 +1273,7 @@
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>37</v>
       </c>
@@ -1274,7 +1294,7 @@
       </c>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>37</v>
       </c>
@@ -1295,7 +1315,7 @@
       </c>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>37</v>
       </c>
@@ -1316,7 +1336,7 @@
       </c>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>37</v>
       </c>
@@ -1337,7 +1357,7 @@
       </c>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>37</v>
       </c>
@@ -1358,7 +1378,7 @@
       </c>
       <c r="G22" s="13"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
         <v>37</v>
       </c>
@@ -1379,7 +1399,7 @@
       </c>
       <c r="G23" s="13"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>37</v>
       </c>
@@ -1400,7 +1420,7 @@
       </c>
       <c r="G24" s="13"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
         <v>37</v>
       </c>
@@ -1421,7 +1441,7 @@
       </c>
       <c r="G25" s="13"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
         <v>37</v>
       </c>
@@ -1442,7 +1462,7 @@
       </c>
       <c r="G26" s="13"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
         <v>37</v>
       </c>
@@ -1463,7 +1483,7 @@
       </c>
       <c r="G27" s="13"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -1472,7 +1492,7 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
         <v>38</v>
       </c>
@@ -1493,7 +1513,7 @@
       </c>
       <c r="G29" s="13"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
         <v>38</v>
       </c>
@@ -1514,7 +1534,7 @@
       </c>
       <c r="G30" s="13"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
@@ -1523,7 +1543,7 @@
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
         <v>39</v>
       </c>
@@ -1542,7 +1562,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
         <v>49</v>
       </c>
@@ -1561,7 +1581,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
         <v>48</v>
       </c>
@@ -1578,7 +1598,7 @@
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
         <v>40</v>
       </c>

--- a/CP04OSPM/Omaha_Cal_Info_CP04OSPM_00001.xlsx
+++ b/CP04OSPM/Omaha_Cal_Info_CP04OSPM_00001.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gauls\Documents\Project Info\WHOI\Marine Integration - OOI\OOInet Migration\Integration\Cal and Ingest Sheets\Sheets from -test 2015-08-19\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="-12" windowWidth="12720" windowHeight="12408" tabRatio="377"/>
+    <workbookView xWindow="9600" yWindow="9640" windowWidth="24700" windowHeight="9800" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -23,24 +18,29 @@
     <definedName name="_FilterDatabase_0_0_0">Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0_0_0">Moorings!$A$1:$J$82</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0">Asset_Cal_Info!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0">Asset_Cal_Info!$A$1:$F$402</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0">Asset_Cal_Info!$A$1:$F$403</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0">Asset_Cal_Info!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0">Asset_Cal_Info!$A$1:$F$402</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_1">Asset_Cal_Info!$A$1:$F$402</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0">Asset_Cal_Info!$A$1:$F$403</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_1">Asset_Cal_Info!$A$1:$F$403</definedName>
     <definedName name="_FilterDatabase_0_0_0_1">Asset_Cal_Info!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_1">Asset_Cal_Info!$A$1:$F$402</definedName>
+    <definedName name="_FilterDatabase_0_0_1">Asset_Cal_Info!$A$1:$F$403</definedName>
     <definedName name="_FilterDatabase_0_1">Asset_Cal_Info!$A$1:$F$1</definedName>
     <definedName name="_FilterDatabase_1">Asset_Cal_Info!$A$1:$F$30</definedName>
     <definedName name="_FilterDatabase_1_1">Asset_Cal_Info!$A$1:$F$1</definedName>
     <definedName name="_FilterDatabase_1_1_1">Moorings!$A$1:$J$82</definedName>
-    <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$F$402</definedName>
+    <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$F$403</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="54">
   <si>
     <t>Ref Des</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>KN 217</t>
-  </si>
-  <si>
     <t>Mooring Serial Number</t>
   </si>
   <si>
@@ -187,18 +184,6 @@
   </si>
   <si>
     <t>CP04OSPM-WFP01-00-WFPENG000</t>
-  </si>
-  <si>
-    <t>CP04OSPM-SBS01-00-RTE000000</t>
-  </si>
-  <si>
-    <t>OSPM-00001-STC</t>
-  </si>
-  <si>
-    <t>OSPM-00001-RTE</t>
-  </si>
-  <si>
-    <t>This serial number is a placekeeper used until the correct serial number is found or defined</t>
   </si>
   <si>
     <t>39°56.2737' N</t>
@@ -231,12 +216,21 @@
       <t>-VEL3DK000</t>
     </r>
   </si>
+  <si>
+    <t>KN-217</t>
+  </si>
+  <si>
+    <t>SWE 0004-G</t>
+  </si>
+  <si>
+    <t>This serial number is a placekeeper used until the correct serial number is found or defined</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -300,6 +294,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -316,13 +337,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,11 +411,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -424,9 +447,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -448,7 +468,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -458,12 +477,26 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="15" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -590,7 +623,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -625,7 +658,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -836,28 +869,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.44140625"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
-    <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17.44140625"/>
-    <col min="7" max="7" width="18.6640625"/>
-    <col min="8" max="8" width="18.6640625" customWidth="1"/>
-    <col min="9" max="9" width="17.88671875"/>
-    <col min="10" max="10" width="12.6640625"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="17.6640625" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" customWidth="1"/>
+    <col min="10" max="10" width="10.5" customWidth="1"/>
     <col min="11" max="11" width="27.33203125" customWidth="1"/>
     <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="1026" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -865,7 +895,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -892,12 +922,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15">
       <c r="A2" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="9">
         <v>1</v>
@@ -905,718 +935,722 @@
       <c r="D2" s="4">
         <v>41744</v>
       </c>
-      <c r="E2" s="11">
-        <v>0.78333333333333333</v>
-      </c>
-      <c r="F2" s="27">
+      <c r="E2" s="28">
+        <v>0.76666666666666661</v>
+      </c>
+      <c r="F2" s="25">
         <v>41916</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I2" s="5">
         <v>453</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="K2" s="6"/>
-      <c r="L2" s="12">
+      <c r="L2" s="11">
         <f>((LEFT(G2,(FIND("°",G2,1)-1)))+(MID(G2,(FIND("°",G2,1)+1),(FIND("'",G2,1))-(FIND("°",G2,1)+1))/60))*(IF(RIGHT(G2,1)="N",1,-1))</f>
         <v>39.937894999999997</v>
       </c>
-      <c r="M2" s="12">
+      <c r="M2" s="11">
         <f>((LEFT(H2,(FIND("°",H2,1)-1)))+(MID(H2,(FIND("°",H2,1)+1),(FIND("'",H2,1))-(FIND("°",H2,1)+1))/60))*(IF(RIGHT(H2,1)="E",1,-1))</f>
         <v>-70.886944999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13">
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup firstPageNumber="0" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.33203125" customWidth="1"/>
     <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625"/>
-    <col min="8" max="8" width="11.88671875"/>
-    <col min="9" max="9" width="14.44140625"/>
-    <col min="10" max="10" width="13.44140625"/>
-    <col min="11" max="1025" width="8.6640625"/>
+    <col min="5" max="5" width="43.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="10" t="s">
+    </row>
+    <row r="2" spans="1:7" s="24" customFormat="1" ht="15">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="15">
+        <v>1</v>
+      </c>
+      <c r="D3" s="16">
+        <v>2725</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="17">
+        <v>-797.74</v>
+      </c>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="15">
+        <v>1</v>
+      </c>
+      <c r="D4" s="16">
+        <v>2725</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="F4" s="18">
+        <v>39.937894999999997</v>
+      </c>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="15">
+        <v>1</v>
+      </c>
+      <c r="D5" s="16">
+        <v>2725</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="18">
+        <v>-70.886944999999997</v>
+      </c>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="15">
+        <v>1</v>
+      </c>
+      <c r="D6" s="16">
+        <v>2725</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="17">
+        <v>3.1116999999999999E-4</v>
+      </c>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="15">
+        <v>1</v>
+      </c>
+      <c r="D7" s="16">
+        <v>2725</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="17">
+        <v>-3.3961E-3</v>
+      </c>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="15">
+        <v>1</v>
+      </c>
+      <c r="D8" s="16">
+        <v>2725</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="17">
+        <v>1.7325000000000001E-4</v>
+      </c>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="15">
+        <v>1</v>
+      </c>
+      <c r="D9" s="16">
+        <v>2725</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="17">
+        <v>-3.1584999999999999E-6</v>
+      </c>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="15">
+        <v>1</v>
+      </c>
+      <c r="D10" s="16">
+        <v>2725</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="17">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="12"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B12" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="15">
+        <v>1</v>
+      </c>
+      <c r="D12" s="15">
+        <v>126</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="18">
+        <v>39.937894999999997</v>
+      </c>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="15">
+        <v>1</v>
+      </c>
+      <c r="D13" s="15">
+        <v>126</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="18">
+        <v>-70.886944999999997</v>
+      </c>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="12"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="16">
+        <v>100036</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="18">
+        <v>39.937894999999997</v>
+      </c>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="15">
+        <v>1</v>
+      </c>
+      <c r="D16" s="16">
+        <v>100036</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="18">
+        <v>-70.886944999999997</v>
+      </c>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="12"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="15">
+        <v>1</v>
+      </c>
+      <c r="D18" s="19">
+        <v>1118</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="26">
+        <v>1.0760000000000001</v>
+      </c>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="15">
+        <v>1</v>
+      </c>
+      <c r="D19" s="15">
+        <v>1118</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="12">
+        <v>45</v>
+      </c>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="15">
+        <v>1</v>
+      </c>
+      <c r="D20" s="15">
+        <v>1118</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="12">
+        <v>49</v>
+      </c>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="15">
+        <v>1</v>
+      </c>
+      <c r="D21" s="15">
+        <v>1118</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="12">
+        <v>50</v>
+      </c>
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="15">
+        <v>1</v>
+      </c>
+      <c r="D22" s="15">
+        <v>1118</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="27">
+        <v>3.9E-2</v>
+      </c>
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="15">
+        <v>1</v>
+      </c>
+      <c r="D23" s="15">
+        <v>1118</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="27">
+        <v>700</v>
+      </c>
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="15">
+        <v>1</v>
+      </c>
+      <c r="D24" s="15">
+        <v>1118</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="12">
+        <v>8.4199999999999997E-2</v>
+      </c>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="15">
+        <v>1</v>
+      </c>
+      <c r="D25" s="15">
+        <v>1118</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="12">
+        <v>1.23E-2</v>
+      </c>
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="15">
+        <v>1</v>
+      </c>
+      <c r="D26" s="15">
+        <v>1118</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="20">
+        <v>3.2289999999999999E-6</v>
+      </c>
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="15">
+        <v>1</v>
+      </c>
+      <c r="D27" s="15">
+        <v>1118</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="26">
+        <v>124</v>
+      </c>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="12"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="15">
+        <v>1</v>
+      </c>
+      <c r="D29" s="15">
+        <v>20468</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="12">
+        <v>1</v>
+      </c>
+      <c r="G29" s="12"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="15">
+        <v>1</v>
+      </c>
+      <c r="D30" s="15">
+        <v>20468</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="20">
+        <v>9.8099999999999994E-18</v>
+      </c>
+      <c r="G30" s="12"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="15">
+        <v>1</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="12"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="15">
+        <v>1</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="12"/>
+      <c r="F34" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G34" s="14"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="12"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="14"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="15">
+        <v>1</v>
+      </c>
+      <c r="D36" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="16">
-        <v>1</v>
-      </c>
-      <c r="D3" s="17">
-        <v>2725</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="18">
-        <v>-797.74</v>
-      </c>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="16">
-        <v>1</v>
-      </c>
-      <c r="D4" s="17">
-        <v>2725</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="19">
-        <v>39.937894999999997</v>
-      </c>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="16">
-        <v>1</v>
-      </c>
-      <c r="D5" s="17">
-        <v>2725</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="19">
-        <v>-70.886944999999997</v>
-      </c>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="16">
-        <v>1</v>
-      </c>
-      <c r="D6" s="17">
-        <v>2725</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="18">
-        <v>3.1116999999999999E-4</v>
-      </c>
-      <c r="G6" s="13"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="16">
-        <v>1</v>
-      </c>
-      <c r="D7" s="17">
-        <v>2725</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="18">
-        <v>-3.3961E-3</v>
-      </c>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="16">
-        <v>1</v>
-      </c>
-      <c r="D8" s="17">
-        <v>2725</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="18">
-        <v>1.7325000000000001E-4</v>
-      </c>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="16">
-        <v>1</v>
-      </c>
-      <c r="D9" s="17">
-        <v>2725</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="18">
-        <v>-3.1584999999999999E-6</v>
-      </c>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="16">
-        <v>1</v>
-      </c>
-      <c r="D10" s="17">
-        <v>2725</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="18">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="G10" s="13"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="13"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="16">
-        <v>1</v>
-      </c>
-      <c r="D12" s="16">
-        <v>126</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="19">
-        <v>39.937894999999997</v>
-      </c>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="16">
-        <v>1</v>
-      </c>
-      <c r="D13" s="16">
-        <v>126</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="19">
-        <v>-70.886944999999997</v>
-      </c>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="16">
-        <v>1</v>
-      </c>
-      <c r="D15" s="17">
-        <v>100036</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="19">
-        <v>39.937894999999997</v>
-      </c>
-      <c r="G15" s="13"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="16">
-        <v>1</v>
-      </c>
-      <c r="D16" s="17">
-        <v>100036</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="19">
-        <v>-70.886944999999997</v>
-      </c>
-      <c r="G16" s="13"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="16">
-        <v>1</v>
-      </c>
-      <c r="D18" s="20">
-        <v>1118</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="21">
-        <v>1.08</v>
-      </c>
-      <c r="G18" s="13"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="16">
-        <v>1</v>
-      </c>
-      <c r="D19" s="16">
-        <v>1118</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="13">
-        <v>45</v>
-      </c>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="16">
-        <v>1</v>
-      </c>
-      <c r="D20" s="16">
-        <v>1118</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="13">
-        <v>49</v>
-      </c>
-      <c r="G20" s="13"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="16">
-        <v>1</v>
-      </c>
-      <c r="D21" s="16">
-        <v>1118</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="13">
-        <v>50</v>
-      </c>
-      <c r="G21" s="13"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="16">
-        <v>1</v>
-      </c>
-      <c r="D22" s="16">
-        <v>1118</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" s="21">
-        <v>3.9E-2</v>
-      </c>
-      <c r="G22" s="13"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="16">
-        <v>1</v>
-      </c>
-      <c r="D23" s="16">
-        <v>1118</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" s="21">
-        <v>700</v>
-      </c>
-      <c r="G23" s="13"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="16">
-        <v>1</v>
-      </c>
-      <c r="D24" s="16">
-        <v>1118</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="13">
-        <v>8.4199999999999997E-2</v>
-      </c>
-      <c r="G24" s="13"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="16">
-        <v>1</v>
-      </c>
-      <c r="D25" s="16">
-        <v>1118</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="13">
-        <v>1.23E-2</v>
-      </c>
-      <c r="G25" s="13"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="16">
-        <v>1</v>
-      </c>
-      <c r="D26" s="16">
-        <v>1118</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" s="22">
-        <v>3.2289999999999999E-6</v>
-      </c>
-      <c r="G26" s="13"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="16">
-        <v>1</v>
-      </c>
-      <c r="D27" s="16">
-        <v>1118</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="21">
-        <v>117</v>
-      </c>
-      <c r="G27" s="13"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="13"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="16">
-        <v>1</v>
-      </c>
-      <c r="D29" s="16">
-        <v>20468</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" s="13">
-        <v>1</v>
-      </c>
-      <c r="G29" s="13"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="16">
-        <v>1</v>
-      </c>
-      <c r="D30" s="16">
-        <v>20468</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F30" s="22">
-        <v>9.8099999999999994E-18</v>
-      </c>
-      <c r="G30" s="13"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="16">
-        <v>1</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="16">
-        <v>1</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="16">
-        <v>1</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="16">
-        <v>1</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup firstPageNumber="0" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>